--- a/biology/Botanique/Villa_Comunale_de_Naples/Villa_Comunale_de_Naples.xlsx
+++ b/biology/Botanique/Villa_Comunale_de_Naples/Villa_Comunale_de_Naples.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Villa Comunale (anciennement Villa Reale) est le plus important et le plus visible parc du centre de Naples. S'étendant sur 11 hectares, il a été construit dans les années 1780 par le Roi Ferdinand IV (connu plus tard sous le nom de Ferdinand Ier des Deux-Siciles) sur des terrains gagnés sur le long de la côte entre la ville principale et le petit port de Mergellina. Le parc était à l'origine un "Jardin Royal", réservé aux membres de la famille royale, mais ouvert au public lors d'évènements spéciaux tels que le Festival de Piedigrotta. Le parc a été ouvert au public de façon permanente en 1869, après l'unification de l'Italie.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc Villa Comunale est un parc historique qui s'étend sur 1 km dans une zone comprise entre Pizzofalcone et les collines du Posillipo, le long de la Riviera di Chiaia. Il suit la courbe de la baie de Piazza Vittoria à la Piazza della Repubblica. Conçu par Vanvitelli qui s'inspira des jardins français, il est planté de pins, palmiers, eucalyptus. Le parc comporte de nombreuses fontaines, sculptures, statues et bustes, ainsi que l'Obélisque méridien.
@@ -545,7 +559,9 @@
           <t>Littérature</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">«La Villa Reale est [...] située, par rapport à la Riviera di Chiaia, comme le jardin des Tuileries par rapport à la rue de Rivoli. Ce n'est qu'à la place de la Seine que se trouve la Méditerranée : au lieu du quai d'Orsay c'est l'extension, l'espace, l'infini. La Villa Reale est sans aucun doute la promenade la plus belle et surtout la plus aristocratique du monde. » (Alexandre Dumas , Le Corricolo , 1841)
 </t>
